--- a/tabs/ZDATA_map_I_have_been.xlsx
+++ b/tabs/ZDATA_map_I_have_been.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\gitgit\byungkiryu\tabs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitgit\br2\byungkiryu\tabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1142A752-B772-4A28-BE50-8802186DD96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B81EE1-9CC7-4DB7-903A-040A72CCC056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="read" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="174">
   <si>
     <t>site</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -681,13 +681,65 @@
     <t>GCOE conference</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Knappenberg</t>
+  </si>
+  <si>
+    <t>Austria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Padova</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Italy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Koln, Germany (April-8 to April-24), for the international exchange between KERI and DLR  //  25th oversea trip
+  University of Warwick, UK (April-11 to April-13), to visit Prof. Neophytos Neophytou's group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coventry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Univ of Warwick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahk's group at Cincinnati Univ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minneapolis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyoto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyoto, Japan (Dec 10-17, 2023) [MRM2023], Invited talk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Las Vegas, NV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy/mmm"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mmm"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -848,7 +900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -862,16 +914,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -880,10 +932,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -907,25 +959,71 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="34">
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -982,290 +1080,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="yyyy/mmm"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1321,23 +1135,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1356,26 +1153,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="yyyy/mmm"/>
+      <numFmt numFmtId="176" formatCode="yyyy/mmm"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1412,13 +1190,6 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1441,6 +1212,13 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1450,6 +1228,286 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy/mmm"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1511,42 +1569,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{773460B6-1672-4C3D-AA63-31731A2ED31A}" name="표1" displayName="표1" ref="A1:L64" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30" totalsRowBorderDxfId="29">
-  <autoFilter ref="A1:L64" xr:uid="{773460B6-1672-4C3D-AA63-31731A2ED31A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{773460B6-1672-4C3D-AA63-31731A2ED31A}" name="표1" displayName="표1" ref="A1:L66" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30" totalsRowBorderDxfId="29">
+  <autoFilter ref="A1:L66" xr:uid="{773460B6-1672-4C3D-AA63-31731A2ED31A}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{03AA161E-E864-4331-AC14-B9C9DAF075CA}" name="num" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{2E31BAC7-B3B9-4D60-96FD-1B77E2C90E7E}" name="when" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{0896C7E6-5200-4BDA-B0C8-48F74A992022}" name="date_started" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{D79B4E10-3077-40F6-B6E9-26EB2062EB3C}" name="date_ended" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{22A80980-023F-4F33-A32E-EF45372AEADA}" name="site" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{40AD35C2-3494-4CCA-8424-8F12DCD25076}" name="city" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{A8ADD25B-4109-4AF6-9AD6-906F4B09F5EF}" name="country" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{618D45E6-8E9F-4182-86CB-E4FF4C867771}" name="type" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{A5525C00-D1A9-402F-B174-CFFEE4388915}" name="contents" dataDxfId="0"/>
-    <tableColumn id="15" xr3:uid="{055048FB-1799-4726-9A21-F7EF88B0C66E}" name="radius" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{6CF118A3-8975-446A-A427-93C39E0AD2EC}" name="latitude" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{353CBE02-EDA6-41BD-B979-FD2FB9CF6BED}" name="longitude" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{03AA161E-E864-4331-AC14-B9C9DAF075CA}" name="num" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{2E31BAC7-B3B9-4D60-96FD-1B77E2C90E7E}" name="when" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{0896C7E6-5200-4BDA-B0C8-48F74A992022}" name="date_started" dataDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{D79B4E10-3077-40F6-B6E9-26EB2062EB3C}" name="date_ended" dataDxfId="25"/>
+    <tableColumn id="16" xr3:uid="{22A80980-023F-4F33-A32E-EF45372AEADA}" name="site" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{40AD35C2-3494-4CCA-8424-8F12DCD25076}" name="city" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{A8ADD25B-4109-4AF6-9AD6-906F4B09F5EF}" name="country" dataDxfId="22"/>
+    <tableColumn id="11" xr3:uid="{618D45E6-8E9F-4182-86CB-E4FF4C867771}" name="type" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{A5525C00-D1A9-402F-B174-CFFEE4388915}" name="contents" dataDxfId="20"/>
+    <tableColumn id="15" xr3:uid="{055048FB-1799-4726-9A21-F7EF88B0C66E}" name="radius" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{6CF118A3-8975-446A-A427-93C39E0AD2EC}" name="latitude" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{353CBE02-EDA6-41BD-B979-FD2FB9CF6BED}" name="longitude" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6A8D1F5B-4E52-4615-91B1-7B363AE7B378}" name="표1_3" displayName="표1_3" ref="A1:L56" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" headerRowBorderDxfId="25" tableBorderDxfId="26" totalsRowBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6A8D1F5B-4E52-4615-91B1-7B363AE7B378}" name="표1_3" displayName="표1_3" ref="A1:L56" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="A1:L56" xr:uid="{773460B6-1672-4C3D-AA63-31731A2ED31A}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{78338D92-4A2B-4E3D-B156-5393467C4061}" name="num" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{B3383091-E12B-43EF-ACAC-A5EB5A892701}" name="when" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{34A24A59-DBBD-418A-B541-86DDB6AF48F5}" name="date_started" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{B7D59EC0-301C-49AE-95B6-CC932F436792}" name="date_ended" dataDxfId="20"/>
-    <tableColumn id="16" xr3:uid="{6E0111C9-A727-4005-8C09-F6964EF90082}" name="site" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{66936F99-D07A-4478-941D-2619729812E2}" name="city" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{FDC90E21-419E-43E6-AC89-42FD322D1A5D}" name="country" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{DB3DDC50-71EA-48E0-9BF6-65B4CB489E96}" name="type" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{BD1BFF4B-CD7F-4FCB-A2F7-E3D8577FF561}" name="contents" dataDxfId="16"/>
-    <tableColumn id="15" xr3:uid="{0CD3D8B2-7F8E-4996-B2BD-5A8501031FC9}" name="radius" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{D5694425-F33F-40F5-A0DA-4C2A2E220D0B}" name="latitude" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{D4104559-BC0B-4315-B4AB-4C36A9898C10}" name="longitude" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{78338D92-4A2B-4E3D-B156-5393467C4061}" name="num" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{B3383091-E12B-43EF-ACAC-A5EB5A892701}" name="when" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{34A24A59-DBBD-418A-B541-86DDB6AF48F5}" name="date_started" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{B7D59EC0-301C-49AE-95B6-CC932F436792}" name="date_ended" dataDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{6E0111C9-A727-4005-8C09-F6964EF90082}" name="site" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{66936F99-D07A-4478-941D-2619729812E2}" name="city" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{FDC90E21-419E-43E6-AC89-42FD322D1A5D}" name="country" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{DB3DDC50-71EA-48E0-9BF6-65B4CB489E96}" name="type" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{BD1BFF4B-CD7F-4FCB-A2F7-E3D8577FF561}" name="contents" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{0CD3D8B2-7F8E-4996-B2BD-5A8501031FC9}" name="radius" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{D5694425-F33F-40F5-A0DA-4C2A2E220D0B}" name="latitude" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{D4104559-BC0B-4315-B4AB-4C36A9898C10}" name="longitude" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1815,28 +1873,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039E1221-B957-4248-8270-E37652A544F1}">
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.4375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1875" customWidth="1"/>
+    <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
     <col min="6" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="12.1875" customWidth="1"/>
-    <col min="9" max="9" width="41.3125" customWidth="1"/>
-    <col min="10" max="10" width="10.5625" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" customWidth="1"/>
+    <col min="9" max="9" width="41.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.58203125" customWidth="1"/>
+    <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>57</v>
       </c>
@@ -1874,7 +1932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="17">
         <v>-100</v>
       </c>
@@ -1904,7 +1962,7 @@
         <v>127.21859000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="17">
         <v>-10</v>
       </c>
@@ -1934,7 +1992,7 @@
         <v>128.718154</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="17">
         <v>1</v>
       </c>
@@ -1951,7 +2009,7 @@
         <v>65</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>63</v>
@@ -1966,7 +2024,7 @@
         <v>-106.638927</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="17">
         <v>2</v>
       </c>
@@ -1983,7 +2041,7 @@
         <v>53</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>62</v>
@@ -1998,7 +2056,7 @@
         <v>132.45434</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="17">
         <v>3</v>
       </c>
@@ -2015,7 +2073,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>61</v>
@@ -2030,7 +2088,7 @@
         <v>3.87502932513372</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="17">
         <v>4</v>
       </c>
@@ -2047,7 +2105,7 @@
         <v>72</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>62</v>
@@ -2062,7 +2120,7 @@
         <v>120.36963815813201</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="17">
         <v>5</v>
       </c>
@@ -2079,7 +2137,7 @@
         <v>65</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>66</v>
@@ -2094,7 +2152,7 @@
         <v>-79.996414734112406</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="17">
         <v>6</v>
       </c>
@@ -2111,7 +2169,7 @@
         <v>68</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" s="15" t="s">
         <v>63</v>
@@ -2126,7 +2184,7 @@
         <v>30.354790004319799</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="17">
         <v>7</v>
       </c>
@@ -2143,7 +2201,7 @@
         <v>70</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10" s="15" t="s">
         <v>62</v>
@@ -2158,7 +2216,7 @@
         <v>116.304608750865</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="17">
         <v>8</v>
       </c>
@@ -2175,7 +2233,7 @@
         <v>65</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11" s="15" t="s">
         <v>66</v>
@@ -2190,7 +2248,7 @@
         <v>-122.66329917549101</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="17">
         <v>9</v>
       </c>
@@ -2207,7 +2265,7 @@
         <v>53</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I12" s="15" t="s">
         <v>160</v>
@@ -2220,7 +2278,7 @@
         <v>135.50048238661799</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="17">
         <v>10</v>
       </c>
@@ -2250,7 +2308,7 @@
         <v>-9.1421650205076492</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="17">
         <v>10</v>
       </c>
@@ -2280,7 +2338,7 @@
         <v>-3.7029134733882998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="17">
         <v>10</v>
       </c>
@@ -2310,7 +2368,7 @@
         <v>-6.0000941618518597</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="17">
         <v>10</v>
       </c>
@@ -2340,7 +2398,7 @@
         <v>-5.1613255266614697</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="17">
         <v>10</v>
       </c>
@@ -2370,7 +2428,7 @@
         <v>-4.5589643117021899</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="17">
         <v>10</v>
       </c>
@@ -2400,7 +2458,7 @@
         <v>-3.8708370172469202</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="17">
         <v>10</v>
       </c>
@@ -2430,7 +2488,7 @@
         <v>-3.6011831922437598</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="17">
         <v>10</v>
       </c>
@@ -2460,7 +2518,7 @@
         <v>2.1513963451336302</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="17">
         <v>10</v>
       </c>
@@ -2490,7 +2548,7 @@
         <v>4.89049657231672</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="17">
         <v>11</v>
       </c>
@@ -2507,7 +2565,7 @@
         <v>105</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I22" s="18" t="s">
         <v>66</v>
@@ -2520,7 +2578,7 @@
         <v>-76.616426601988394</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="31.5" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:12" ht="32" x14ac:dyDescent="0.45">
       <c r="A23" s="17">
         <v>12</v>
       </c>
@@ -2550,7 +2608,7 @@
         <v>10.5244507051922</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="31.5" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:12" ht="32" x14ac:dyDescent="0.45">
       <c r="A24" s="17">
         <v>12</v>
       </c>
@@ -2580,7 +2638,7 @@
         <v>13.4117469588773</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="31.5" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:12" ht="32" x14ac:dyDescent="0.45">
       <c r="A25" s="17">
         <v>12</v>
       </c>
@@ -2610,7 +2668,7 @@
         <v>19.9396327920016</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="31.5" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:12" ht="32" x14ac:dyDescent="0.45">
       <c r="A26" s="17">
         <v>12</v>
       </c>
@@ -2640,7 +2698,7 @@
         <v>20.996193258919099</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="17">
         <v>13</v>
       </c>
@@ -2670,7 +2728,7 @@
         <v>-98.484032793654407</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="31.5" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:12" ht="32" x14ac:dyDescent="0.45">
       <c r="A28" s="17">
         <v>14</v>
       </c>
@@ -2700,7 +2758,7 @@
         <v>-95.358728560659003</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="31.5" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:12" ht="32" x14ac:dyDescent="0.45">
       <c r="A29" s="17">
         <v>14</v>
       </c>
@@ -2730,7 +2788,7 @@
         <v>-122.274208076652</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="47.25" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:12" ht="48" x14ac:dyDescent="0.45">
       <c r="A30" s="17">
         <v>15</v>
       </c>
@@ -2760,7 +2818,7 @@
         <v>-76.616426601988394</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="47.25" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:12" ht="51" x14ac:dyDescent="0.45">
       <c r="A31" s="17">
         <v>15</v>
       </c>
@@ -2769,7 +2827,9 @@
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>169</v>
+      </c>
       <c r="F31" s="5" t="s">
         <v>129</v>
       </c>
@@ -2790,7 +2850,7 @@
         <v>-84.514263007525102</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="17">
         <v>16</v>
       </c>
@@ -2820,7 +2880,7 @@
         <v>15.9522463919101</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="17">
         <v>16</v>
       </c>
@@ -2850,7 +2910,7 @@
         <v>14.093960105654601</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="17">
         <v>16</v>
       </c>
@@ -2882,7 +2942,7 @@
         <v>14.2041002768187</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="17">
         <v>16</v>
       </c>
@@ -2912,7 +2972,7 @@
         <v>15.6189141890504</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="17">
         <v>16</v>
       </c>
@@ -2942,7 +3002,7 @@
         <v>15.220037549492901</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="17">
         <v>16</v>
       </c>
@@ -2972,7 +3032,7 @@
         <v>16.441262946199998</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:12" ht="34" x14ac:dyDescent="0.45">
       <c r="A38" s="17">
         <v>16</v>
       </c>
@@ -3002,7 +3062,7 @@
         <v>17.815059540440899</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="17">
         <v>16</v>
       </c>
@@ -3032,7 +3092,7 @@
         <v>18.107255468449399</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="17">
         <v>17</v>
       </c>
@@ -3062,7 +3122,7 @@
         <v>127.878045254618</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="17">
         <v>18</v>
       </c>
@@ -3092,7 +3152,7 @@
         <v>-90.075875256094093</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="17">
         <v>19</v>
       </c>
@@ -3122,225 +3182,293 @@
         <v>98.3067130312578</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="31.5" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:12" ht="32" x14ac:dyDescent="0.45">
       <c r="A43" s="17">
         <v>20</v>
       </c>
-      <c r="B43" s="7"/>
+      <c r="B43" s="7">
+        <v>42979</v>
+      </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
+      <c r="F43" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="I43" s="21" t="s">
         <v>134</v>
       </c>
       <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-    </row>
-    <row r="44" spans="1:12" ht="31.5" x14ac:dyDescent="0.6">
-      <c r="A44" s="17"/>
-      <c r="B44" s="7"/>
+      <c r="K43" s="5">
+        <v>46.937852101165703</v>
+      </c>
+      <c r="L43" s="5">
+        <v>14.5639120221503</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="32" x14ac:dyDescent="0.45">
+      <c r="A44" s="17">
+        <v>20</v>
+      </c>
+      <c r="B44" s="7">
+        <v>42979</v>
+      </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
+      <c r="F44" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="I44" s="21" t="s">
         <v>134</v>
       </c>
       <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-    </row>
-    <row r="45" spans="1:12" ht="31.5" x14ac:dyDescent="0.6">
-      <c r="A45" s="17"/>
-      <c r="B45" s="7"/>
+      <c r="K44" s="5">
+        <v>45.409478170140702</v>
+      </c>
+      <c r="L44" s="5">
+        <v>11.878060676424001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A45" s="17">
+        <v>21</v>
+      </c>
+      <c r="B45" s="7">
+        <v>43160</v>
+      </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="21" t="s">
-        <v>134</v>
+      <c r="F45" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I45" s="18" t="s">
+        <v>135</v>
       </c>
       <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-    </row>
-    <row r="46" spans="1:12" ht="31.5" x14ac:dyDescent="0.6">
-      <c r="A46" s="17"/>
-      <c r="B46" s="7"/>
+      <c r="K45" s="5">
+        <v>34.038892889163101</v>
+      </c>
+      <c r="L45" s="5">
+        <v>-118.268156294997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="32" x14ac:dyDescent="0.45">
+      <c r="A46" s="17">
+        <v>22</v>
+      </c>
+      <c r="B46" s="7">
+        <v>43282</v>
+      </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="21" t="s">
-        <v>134</v>
+      <c r="F46" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>136</v>
       </c>
       <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="K46" s="5">
+        <v>49.178261329795603</v>
+      </c>
+      <c r="L46" s="5">
+        <v>-0.37014065563777399</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="32" x14ac:dyDescent="0.45">
       <c r="A47" s="17">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B47" s="7">
-        <v>43160</v>
+        <v>43282</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="E47" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F47" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5">
-        <v>34.038892889163101</v>
+        <v>50.943208510535001</v>
       </c>
       <c r="L47" s="5">
-        <v>-118.268156294997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="31.5" x14ac:dyDescent="0.6">
-      <c r="A48" s="17">
-        <v>22</v>
-      </c>
-      <c r="B48" s="7">
-        <v>43282</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>60</v>
+        <v>6.9584788315311696</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="51" x14ac:dyDescent="0.45">
+      <c r="A48" s="19">
+        <v>23</v>
+      </c>
+      <c r="B48" s="8">
+        <v>43313</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I48" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5">
-        <v>49.178261329795603</v>
-      </c>
-      <c r="L48" s="5">
-        <v>-0.37014065563777399</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="31.5" x14ac:dyDescent="0.6">
-      <c r="A49" s="17">
-        <v>22</v>
-      </c>
-      <c r="B49" s="7">
-        <v>43282</v>
-      </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5" t="s">
+      <c r="I48" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6">
+        <v>35.895320216901801</v>
+      </c>
+      <c r="L48" s="6">
+        <v>139.95252829063199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A49" s="19">
+        <v>24</v>
+      </c>
+      <c r="B49" s="8">
+        <v>43525</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6">
+        <v>42.345406954485597</v>
+      </c>
+      <c r="L49" s="6">
+        <v>-71.047000911793504</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="80" x14ac:dyDescent="0.45">
+      <c r="A50" s="19">
+        <v>25</v>
+      </c>
+      <c r="B50" s="8">
+        <v>43556</v>
+      </c>
+      <c r="C50" s="22">
+        <v>43563</v>
+      </c>
+      <c r="D50" s="22">
+        <v>43579</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G50" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I49" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5">
-        <v>50.943208510535001</v>
-      </c>
-      <c r="L49" s="5">
-        <v>6.9584788315311696</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
-      <c r="A50" s="19">
-        <v>23</v>
-      </c>
-      <c r="B50" s="8">
-        <v>43313</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I50" s="13" t="s">
-        <v>158</v>
+      <c r="I50" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="J50" s="6"/>
-      <c r="K50" s="6">
-        <v>35.895320216901801</v>
-      </c>
-      <c r="L50" s="6">
-        <v>139.95252829063199</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="K50" s="5">
+        <v>50.943208510535001</v>
+      </c>
+      <c r="L50" s="5">
+        <v>6.9584788315311696</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="80" x14ac:dyDescent="0.45">
       <c r="A51" s="19">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B51" s="8">
-        <v>43525</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H51" s="6" t="s">
+        <v>43556</v>
+      </c>
+      <c r="C51" s="22">
+        <v>43566</v>
+      </c>
+      <c r="D51" s="22">
+        <v>43568</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H51" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I51" s="14" t="s">
-        <v>91</v>
+      <c r="I51" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="J51" s="6"/>
-      <c r="K51" s="6">
-        <v>42.345406954485597</v>
-      </c>
-      <c r="L51" s="6">
-        <v>-71.047000911793504</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="K51" s="5">
+        <v>52.382650979684897</v>
+      </c>
+      <c r="L51" s="5">
+        <v>-1.56708361785728</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="6"/>
@@ -3349,100 +3477,98 @@
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
-      <c r="I52" s="13" t="s">
-        <v>90</v>
+      <c r="I52" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
     </row>
-    <row r="53" spans="1:12" ht="47.25" x14ac:dyDescent="0.6">
-      <c r="A53" s="19">
-        <v>25</v>
-      </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A54" s="19">
-        <v>26</v>
-      </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A55" s="19">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A53" s="17"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A54" s="17"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A55" s="17"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A56" s="17"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A57" s="19">
         <v>27</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-    </row>
-    <row r="56" spans="1:12" ht="31.5" x14ac:dyDescent="0.6">
-      <c r="A56" s="19"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-    </row>
-    <row r="57" spans="1:12" ht="31.5" x14ac:dyDescent="0.6">
-      <c r="A57" s="19"/>
       <c r="B57" s="8"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
+      <c r="F57" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="I57" s="16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-    </row>
-    <row r="58" spans="1:12" ht="31.5" x14ac:dyDescent="0.6">
+      <c r="K57" s="6">
+        <v>36.119894651422101</v>
+      </c>
+      <c r="L57" s="6">
+        <v>-115.171454290643</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="32" x14ac:dyDescent="0.45">
       <c r="A58" s="19"/>
       <c r="B58" s="8"/>
       <c r="C58" s="6"/>
@@ -3452,13 +3578,13 @@
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
     </row>
-    <row r="59" spans="1:12" ht="47.25" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:12" ht="32" x14ac:dyDescent="0.45">
       <c r="A59" s="19"/>
       <c r="B59" s="8"/>
       <c r="C59" s="6"/>
@@ -3468,13 +3594,13 @@
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
     </row>
-    <row r="60" spans="1:12" ht="31.5" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:12" ht="32" x14ac:dyDescent="0.45">
       <c r="A60" s="19"/>
       <c r="B60" s="8"/>
       <c r="C60" s="6"/>
@@ -3484,13 +3610,13 @@
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:12" ht="48" x14ac:dyDescent="0.45">
       <c r="A61" s="19"/>
       <c r="B61" s="8"/>
       <c r="C61" s="6"/>
@@ -3500,74 +3626,142 @@
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A62" s="17"/>
-      <c r="B62" s="7">
+    <row r="62" spans="1:12" ht="32" x14ac:dyDescent="0.45">
+      <c r="A62" s="19"/>
+      <c r="B62" s="8">
+        <v>45627</v>
+      </c>
+      <c r="C62" s="22">
+        <v>45636</v>
+      </c>
+      <c r="D62" s="22">
+        <v>45643</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H62" s="6"/>
+      <c r="I62" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6">
+        <v>35.003620166833699</v>
+      </c>
+      <c r="L62" s="6">
+        <v>135.75103821800599</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A63" s="19"/>
+      <c r="B63" s="8">
+        <v>45352</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I63" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6">
+        <v>44.969808694133697</v>
+      </c>
+      <c r="L63" s="6">
+        <v>-93.273939580476195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A64" s="17"/>
+      <c r="B64" s="7">
         <v>45474</v>
-      </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-    </row>
-    <row r="63" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
-      <c r="A63" s="17"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="10"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A64" s="19"/>
-      <c r="B64" s="7">
-        <v>45352</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5">
+        <v>50.062428563484602</v>
+      </c>
+      <c r="L64" s="5">
+        <v>19.9396327920016</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="51" x14ac:dyDescent="0.45">
+      <c r="A65" s="17"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="10"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A66" s="19"/>
+      <c r="B66" s="7">
+        <v>45717</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="G66" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H64" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I64" s="5" t="s">
+      <c r="H66" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I66" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6">
+        <v>33.798182484605697</v>
+      </c>
+      <c r="L66" s="6">
+        <v>-117.914611697654</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3587,22 +3781,22 @@
       <selection activeCell="B53" sqref="B53:I55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.4375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1875" customWidth="1"/>
+    <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
     <col min="6" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="12.1875" customWidth="1"/>
-    <col min="9" max="9" width="24.4375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5625" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" customWidth="1"/>
+    <col min="9" max="9" width="24.4140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.58203125" customWidth="1"/>
     <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>57</v>
       </c>
@@ -3640,7 +3834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="11">
         <v>-100</v>
       </c>
@@ -3668,7 +3862,7 @@
         <v>127.21859000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="11">
         <v>-10</v>
       </c>
@@ -3698,7 +3892,7 @@
         <v>128.718154</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -3730,7 +3924,7 @@
         <v>-106.638927</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -3762,7 +3956,7 @@
         <v>132.45434</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -3794,7 +3988,7 @@
         <v>3.87502932513372</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -3826,7 +4020,7 @@
         <v>120.36963815813201</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -3858,7 +4052,7 @@
         <v>-79.996414734112406</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -3890,7 +4084,7 @@
         <v>30.354790004319799</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -3922,7 +4116,7 @@
         <v>116.304608750865</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -3954,7 +4148,7 @@
         <v>-122.66329917549101</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -3982,7 +4176,7 @@
         <v>135.50048238661799</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -4012,7 +4206,7 @@
         <v>-9.1421650205076492</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="11">
         <v>10</v>
       </c>
@@ -4042,7 +4236,7 @@
         <v>-3.7029134733882998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="11">
         <v>10</v>
       </c>
@@ -4072,7 +4266,7 @@
         <v>-6.0000941618518597</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="11">
         <v>10</v>
       </c>
@@ -4102,7 +4296,7 @@
         <v>-5.1613255266614697</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="11">
         <v>10</v>
       </c>
@@ -4132,7 +4326,7 @@
         <v>-4.5589643117021899</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="11">
         <v>10</v>
       </c>
@@ -4162,7 +4356,7 @@
         <v>-3.8708370172469202</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="11">
         <v>10</v>
       </c>
@@ -4192,7 +4386,7 @@
         <v>-3.6011831922437598</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="11">
         <v>10</v>
       </c>
@@ -4222,7 +4416,7 @@
         <v>2.1513963451336302</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="11">
         <v>10</v>
       </c>
@@ -4252,7 +4446,7 @@
         <v>4.89049657231672</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="11"/>
       <c r="B22" s="7"/>
       <c r="C22" s="5"/>
@@ -4266,7 +4460,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="11"/>
       <c r="B23" s="7"/>
       <c r="C23" s="5"/>
@@ -4280,7 +4474,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="11"/>
       <c r="B24" s="7"/>
       <c r="C24" s="5"/>
@@ -4294,7 +4488,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="11"/>
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
@@ -4308,7 +4502,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="11"/>
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
@@ -4322,7 +4516,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="11"/>
       <c r="B27" s="7"/>
       <c r="C27" s="5"/>
@@ -4336,7 +4530,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="11"/>
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
@@ -4349,7 +4543,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="11"/>
       <c r="B29" s="7"/>
       <c r="C29" s="5"/>
@@ -4362,7 +4556,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="11"/>
       <c r="B30" s="7"/>
       <c r="C30" s="5"/>
@@ -4375,7 +4569,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="7"/>
       <c r="C31" s="5"/>
@@ -4388,7 +4582,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="11"/>
       <c r="B32" s="7"/>
       <c r="C32" s="5"/>
@@ -4401,7 +4595,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="11"/>
       <c r="B33" s="7"/>
       <c r="C33" s="5"/>
@@ -4414,7 +4608,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="11"/>
       <c r="B34" s="7"/>
       <c r="C34" s="5"/>
@@ -4430,7 +4624,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="11"/>
       <c r="B35" s="7"/>
       <c r="C35" s="5"/>
@@ -4446,7 +4640,7 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="11"/>
       <c r="B36" s="7"/>
       <c r="C36" s="5"/>
@@ -4462,7 +4656,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="11"/>
       <c r="B37" s="7"/>
       <c r="C37" s="5"/>
@@ -4478,7 +4672,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="11"/>
       <c r="B38" s="7"/>
       <c r="C38" s="5"/>
@@ -4494,7 +4688,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="11"/>
       <c r="B39" s="7"/>
       <c r="C39" s="5"/>
@@ -4510,7 +4704,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="11"/>
       <c r="B40" s="7"/>
       <c r="C40" s="5"/>
@@ -4526,7 +4720,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="11"/>
       <c r="B41" s="7"/>
       <c r="C41" s="5"/>
@@ -4542,7 +4736,7 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="11"/>
       <c r="B42" s="7"/>
       <c r="C42" s="5"/>
@@ -4558,7 +4752,7 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="11"/>
       <c r="B43" s="7"/>
       <c r="C43" s="5"/>
@@ -4574,7 +4768,7 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" s="11"/>
       <c r="B44" s="7"/>
       <c r="C44" s="5"/>
@@ -4590,7 +4784,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="11"/>
       <c r="B45" s="7"/>
       <c r="C45" s="5"/>
@@ -4606,7 +4800,7 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="11"/>
       <c r="B46" s="7"/>
       <c r="C46" s="5"/>
@@ -4622,7 +4816,7 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="11"/>
       <c r="B47" s="7"/>
       <c r="C47" s="5"/>
@@ -4638,7 +4832,7 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="11"/>
       <c r="B48" s="7"/>
       <c r="C48" s="5"/>
@@ -4654,7 +4848,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" s="11"/>
       <c r="B49" s="7"/>
       <c r="C49" s="5"/>
@@ -4670,7 +4864,7 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" s="11"/>
       <c r="B50" s="7"/>
       <c r="C50" s="5"/>
@@ -4686,7 +4880,7 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" s="11"/>
       <c r="B51" s="7"/>
       <c r="C51" s="5"/>
@@ -4702,7 +4896,7 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" s="11"/>
       <c r="B52" s="7">
         <v>45352</v>
@@ -4718,7 +4912,7 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" s="11"/>
       <c r="B53" s="7">
         <v>45474</v>
@@ -4742,7 +4936,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" s="11"/>
       <c r="B54" s="7"/>
       <c r="C54" s="5"/>
@@ -4758,7 +4952,7 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" s="11"/>
       <c r="B55" s="7">
         <v>45352</v>
@@ -4782,7 +4976,7 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="12"/>
       <c r="B56" s="8"/>
       <c r="C56" s="6"/>
@@ -4814,7 +5008,7 @@
       <selection activeCell="E61" sqref="E9:E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4829,16 +5023,16 @@
       <selection activeCell="G2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="20.4375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.4375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.4140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.25" customWidth="1"/>
-    <col min="7" max="8" width="10.8125" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" customWidth="1"/>
     <col min="9" max="9" width="69.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -4867,7 +5061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -4894,7 +5088,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -4923,7 +5117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -4952,7 +5146,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -4981,7 +5175,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -5008,7 +5202,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -5033,7 +5227,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:9" ht="34" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -5062,7 +5256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:9" ht="34" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>

--- a/tabs/ZDATA_map_I_have_been.xlsx
+++ b/tabs/ZDATA_map_I_have_been.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitgit\br2\byungkiryu\tabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B81EE1-9CC7-4DB7-903A-040A72CCC056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE1A52B-229F-42E3-9DC6-6ED5CB8C9B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="176">
   <si>
     <t>site</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -731,6 +731,14 @@
   </si>
   <si>
     <t>Las Vegas, NV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prague</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chech Republic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1875,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039E1221-B957-4248-8270-E37652A544F1}">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3602,19 +3610,35 @@
     </row>
     <row r="60" spans="1:12" ht="32" x14ac:dyDescent="0.45">
       <c r="A60" s="19"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
+      <c r="B60" s="8">
+        <v>45170</v>
+      </c>
+      <c r="C60" s="22">
+        <v>45185</v>
+      </c>
+      <c r="D60" s="22">
+        <v>45190</v>
+      </c>
       <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
+      <c r="F60" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="I60" s="20" t="s">
         <v>84</v>
       </c>
       <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
+      <c r="K60" s="6">
+        <v>50.0854993826851</v>
+      </c>
+      <c r="L60" s="6">
+        <v>14.3797258889237</v>
+      </c>
     </row>
     <row r="61" spans="1:12" ht="48" x14ac:dyDescent="0.45">
       <c r="A61" s="19"/>

--- a/tabs/ZDATA_map_I_have_been.xlsx
+++ b/tabs/ZDATA_map_I_have_been.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitgit\br2\byungkiryu\tabs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e64a25058d50c5c4/OneD-2025/6_homepage_byungkiryu/byungkiryu/tabs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE1A52B-229F-42E3-9DC6-6ED5CB8C9B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="323" documentId="13_ncr:1_{4AE1A52B-229F-42E3-9DC6-6ED5CB8C9B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FDA76D5-1F59-4D6C-A1C5-7C8F99666DE8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="read" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="224">
   <si>
     <t>site</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -682,9 +682,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Knappenberg</t>
-  </si>
-  <si>
     <t>Austria</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -739,6 +736,202 @@
   </si>
   <si>
     <t>Chech Republic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seattle, WA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Las Vegas, NV, US (March 3-10, 2023) [APS]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seattle, WA, US (June 21-25, 2023) [ICT2023], Invited Talk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tokyo (August 28 - September 2, 2023) [VACATION]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prague, Chezh Republic (September 16-21, 2023) [ECT2023], Oral talk  //  30th oversea trip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tskuba and Koriyama, Japan (September 25 to October 6, 2023) [Tsukuba Conference 2023, VISIT AIST and RD20], invited by AIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tokyo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tsukuba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Koriyama</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fukushima</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>London</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paris</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rigi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Milano</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venezia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pisa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Firenze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switzland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abu Dhabi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주바일 맹그로브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arab Emirates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luzern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minneapolis, MN, US (March 4-8, 2024) [APS]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Europe tour (London-Paris-Switzland-Milano-Venezia-Pisa-Firenze-Rome-Abu Dabi) (Aug, 2024) [VACATION] //  35th oversea trip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selfoss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iceland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boston, US (March 2019) [APS]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knappenberg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iceland (Oct 2019) [VACATION]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀포스 South Coast</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helsinki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finalnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골든서클</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>남부지역</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>동부피오르드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>북부여행</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>아쿠레이리</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>서부피오르드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>랭요쿨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이캬비크</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수오멘린나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비크</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>회픈</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이일스타디르</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>스나이펠스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>글라움베르</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>초등학교 놀이터</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sendai</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -746,8 +939,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/mmm"/>
+    <numFmt numFmtId="177" formatCode="0.00000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -787,29 +981,22 @@
       <charset val="238"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -893,22 +1080,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -929,9 +1105,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -940,16 +1113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -958,26 +1122,356 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="34">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="0.00000"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="0.00000"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy/mmm"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1239,286 +1733,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy/mmm"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
@@ -1540,9 +1754,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1576,43 +1787,47 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{773460B6-1672-4C3D-AA63-31731A2ED31A}" name="표1" displayName="표1" ref="A1:L66" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30" totalsRowBorderDxfId="29">
-  <autoFilter ref="A1:L66" xr:uid="{773460B6-1672-4C3D-AA63-31731A2ED31A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{773460B6-1672-4C3D-AA63-31731A2ED31A}" name="표1" displayName="표1" ref="A1:L84" totalsRowShown="0" headerRowDxfId="33" dataDxfId="12" headerRowBorderDxfId="32" tableBorderDxfId="31" totalsRowBorderDxfId="30">
+  <autoFilter ref="A1:L84" xr:uid="{773460B6-1672-4C3D-AA63-31731A2ED31A}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{03AA161E-E864-4331-AC14-B9C9DAF075CA}" name="num" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{2E31BAC7-B3B9-4D60-96FD-1B77E2C90E7E}" name="when" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{0896C7E6-5200-4BDA-B0C8-48F74A992022}" name="date_started" dataDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{D79B4E10-3077-40F6-B6E9-26EB2062EB3C}" name="date_ended" dataDxfId="25"/>
-    <tableColumn id="16" xr3:uid="{22A80980-023F-4F33-A32E-EF45372AEADA}" name="site" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{40AD35C2-3494-4CCA-8424-8F12DCD25076}" name="city" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{A8ADD25B-4109-4AF6-9AD6-906F4B09F5EF}" name="country" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{618D45E6-8E9F-4182-86CB-E4FF4C867771}" name="type" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{A5525C00-D1A9-402F-B174-CFFEE4388915}" name="contents" dataDxfId="20"/>
-    <tableColumn id="15" xr3:uid="{055048FB-1799-4726-9A21-F7EF88B0C66E}" name="radius" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{6CF118A3-8975-446A-A427-93C39E0AD2EC}" name="latitude" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{353CBE02-EDA6-41BD-B979-FD2FB9CF6BED}" name="longitude" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{03AA161E-E864-4331-AC14-B9C9DAF075CA}" name="num" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{2E31BAC7-B3B9-4D60-96FD-1B77E2C90E7E}" name="when" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{0896C7E6-5200-4BDA-B0C8-48F74A992022}" name="date_started" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{D79B4E10-3077-40F6-B6E9-26EB2062EB3C}" name="date_ended" dataDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{22A80980-023F-4F33-A32E-EF45372AEADA}" name="site" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{40AD35C2-3494-4CCA-8424-8F12DCD25076}" name="city" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{A8ADD25B-4109-4AF6-9AD6-906F4B09F5EF}" name="country" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{618D45E6-8E9F-4182-86CB-E4FF4C867771}" name="type" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{A5525C00-D1A9-402F-B174-CFFEE4388915}" name="contents" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{055048FB-1799-4726-9A21-F7EF88B0C66E}" name="radius" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{6CF118A3-8975-446A-A427-93C39E0AD2EC}" name="latitude" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{353CBE02-EDA6-41BD-B979-FD2FB9CF6BED}" name="longitude" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6A8D1F5B-4E52-4615-91B1-7B363AE7B378}" name="표1_3" displayName="표1_3" ref="A1:L56" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6A8D1F5B-4E52-4615-91B1-7B363AE7B378}" name="표1_3" displayName="표1_3" ref="A1:L56" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
   <autoFilter ref="A1:L56" xr:uid="{773460B6-1672-4C3D-AA63-31731A2ED31A}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{78338D92-4A2B-4E3D-B156-5393467C4061}" name="num" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{B3383091-E12B-43EF-ACAC-A5EB5A892701}" name="when" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{34A24A59-DBBD-418A-B541-86DDB6AF48F5}" name="date_started" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{B7D59EC0-301C-49AE-95B6-CC932F436792}" name="date_ended" dataDxfId="8"/>
-    <tableColumn id="16" xr3:uid="{6E0111C9-A727-4005-8C09-F6964EF90082}" name="site" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{66936F99-D07A-4478-941D-2619729812E2}" name="city" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{FDC90E21-419E-43E6-AC89-42FD322D1A5D}" name="country" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{DB3DDC50-71EA-48E0-9BF6-65B4CB489E96}" name="type" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{BD1BFF4B-CD7F-4FCB-A2F7-E3D8577FF561}" name="contents" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{0CD3D8B2-7F8E-4996-B2BD-5A8501031FC9}" name="radius" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{D5694425-F33F-40F5-A0DA-4C2A2E220D0B}" name="latitude" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{D4104559-BC0B-4315-B4AB-4C36A9898C10}" name="longitude" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{78338D92-4A2B-4E3D-B156-5393467C4061}" name="num" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{B3383091-E12B-43EF-ACAC-A5EB5A892701}" name="when" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{34A24A59-DBBD-418A-B541-86DDB6AF48F5}" name="date_started" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{B7D59EC0-301C-49AE-95B6-CC932F436792}" name="date_ended" dataDxfId="21"/>
+    <tableColumn id="16" xr3:uid="{6E0111C9-A727-4005-8C09-F6964EF90082}" name="site" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{66936F99-D07A-4478-941D-2619729812E2}" name="city" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{FDC90E21-419E-43E6-AC89-42FD322D1A5D}" name="country" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{DB3DDC50-71EA-48E0-9BF6-65B4CB489E96}" name="type" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{BD1BFF4B-CD7F-4FCB-A2F7-E3D8577FF561}" name="contents" dataDxfId="16"/>
+    <tableColumn id="15" xr3:uid="{0CD3D8B2-7F8E-4996-B2BD-5A8501031FC9}" name="radius" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{D5694425-F33F-40F5-A0DA-4C2A2E220D0B}" name="latitude" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{D4104559-BC0B-4315-B4AB-4C36A9898C10}" name="longitude" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1881,28 +2096,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039E1221-B957-4248-8270-E37652A544F1}">
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.4140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="7.0625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.4375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1875" customWidth="1"/>
     <col min="6" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" customWidth="1"/>
-    <col min="9" max="9" width="41.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.58203125" customWidth="1"/>
+    <col min="8" max="8" width="12.1875" customWidth="1"/>
+    <col min="9" max="9" width="41.3125" customWidth="1"/>
+    <col min="10" max="10" width="10.5625" customWidth="1"/>
     <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A1" s="3" t="s">
         <v>57</v>
       </c>
@@ -1940,13 +2155,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2" s="17">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A2" s="13">
         <v>-100</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
         <v>75</v>
@@ -1957,26 +2172,26 @@
       <c r="H2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="12" t="s">
         <v>76</v>
       </c>
       <c r="J2" s="5">
         <v>400</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="15">
         <v>38.211815000000001</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="15">
         <v>127.21859000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="17">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A3" s="13">
         <v>-10</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
         <v>73</v>
@@ -1987,28 +2202,28 @@
       <c r="H3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="5">
         <v>400</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="15">
         <v>35.189891699999997</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="15">
         <v>128.718154</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" s="17">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
       <c r="B4" s="7">
         <v>39264</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
         <v>49</v>
@@ -2019,28 +2234,28 @@
       <c r="H4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="12" t="s">
         <v>63</v>
       </c>
       <c r="J4" s="5">
         <v>300</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="15">
         <v>35.119190000000003</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="15">
         <v>-106.638927</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="17">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
       <c r="B5" s="7">
         <v>39387</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
         <v>56</v>
@@ -2051,28 +2266,28 @@
       <c r="H5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="12" t="s">
         <v>62</v>
       </c>
       <c r="J5" s="5">
         <v>300</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="15">
         <v>34.392270000000003</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="15">
         <v>132.45434</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" s="17">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A6" s="13">
         <v>3</v>
       </c>
       <c r="B6" s="7">
         <v>39661</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
         <v>59</v>
@@ -2083,28 +2298,28 @@
       <c r="H6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="12" t="s">
         <v>61</v>
       </c>
       <c r="J6" s="5">
         <v>300</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="15">
         <v>43.612478915209302</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="15">
         <v>3.87502932513372</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" s="17">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A7" s="13">
         <v>4</v>
       </c>
       <c r="B7" s="7">
         <v>39753</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
         <v>71</v>
@@ -2115,28 +2330,28 @@
       <c r="H7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="12" t="s">
         <v>62</v>
       </c>
       <c r="J7" s="5">
         <v>300</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="15">
         <v>22.568678515420299</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="15">
         <v>120.36963815813201</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8" s="17">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A8" s="13">
         <v>5</v>
       </c>
       <c r="B8" s="7">
         <v>39873</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
         <v>64</v>
@@ -2147,28 +2362,28 @@
       <c r="H8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="12" t="s">
         <v>66</v>
       </c>
       <c r="J8" s="5">
         <v>300</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="15">
         <v>40.4458609954278</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="15">
         <v>-79.996414734112406</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" s="17">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A9" s="13">
         <v>6</v>
       </c>
       <c r="B9" s="7">
         <v>40026</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
         <v>67</v>
@@ -2179,28 +2394,28 @@
       <c r="H9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="12" t="s">
         <v>63</v>
       </c>
       <c r="J9" s="5">
         <v>300</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="15">
         <v>59.931832161965097</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="15">
         <v>30.354790004319799</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" s="17">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A10" s="13">
         <v>7</v>
       </c>
       <c r="B10" s="7">
         <v>40087</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
         <v>69</v>
@@ -2211,28 +2426,28 @@
       <c r="H10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="12" t="s">
         <v>62</v>
       </c>
       <c r="J10" s="5">
         <v>300</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="15">
         <v>39.990852970297503</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="15">
         <v>116.304608750865</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="17">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A11" s="13">
         <v>8</v>
       </c>
       <c r="B11" s="7">
         <v>40238</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
         <v>78</v>
@@ -2243,28 +2458,28 @@
       <c r="H11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="12" t="s">
         <v>66</v>
       </c>
       <c r="J11" s="5">
         <v>300</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="15">
         <v>45.515971187531498</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="15">
         <v>-122.66329917549101</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="17">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A12" s="13">
         <v>9</v>
       </c>
       <c r="B12" s="7">
         <v>40299</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
         <v>79</v>
@@ -2275,26 +2490,26 @@
       <c r="H12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="12" t="s">
         <v>160</v>
       </c>
       <c r="J12" s="5"/>
-      <c r="K12" s="5">
+      <c r="K12" s="15">
         <v>34.697861403327003</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="15">
         <v>135.50048238661799</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="17">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A13" s="13">
         <v>10</v>
       </c>
       <c r="B13" s="7">
         <v>40452</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
         <v>109</v>
@@ -2305,26 +2520,26 @@
       <c r="H13" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="12" t="s">
         <v>99</v>
       </c>
       <c r="J13" s="5"/>
-      <c r="K13" s="5">
+      <c r="K13" s="15">
         <v>38.716168714226299</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="15">
         <v>-9.1421650205076492</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A14" s="17">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A14" s="13">
         <v>10</v>
       </c>
       <c r="B14" s="7">
         <v>40452</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
         <v>110</v>
@@ -2335,26 +2550,26 @@
       <c r="H14" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="12" t="s">
         <v>99</v>
       </c>
       <c r="J14" s="5"/>
-      <c r="K14" s="5">
+      <c r="K14" s="15">
         <v>40.425730460542503</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="15">
         <v>-3.7029134733882998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A15" s="17">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A15" s="13">
         <v>10</v>
       </c>
       <c r="B15" s="7">
         <v>40452</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
         <v>111</v>
@@ -2365,26 +2580,26 @@
       <c r="H15" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="12" t="s">
         <v>99</v>
       </c>
       <c r="J15" s="5"/>
-      <c r="K15" s="5">
+      <c r="K15" s="15">
         <v>37.390308434033898</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="15">
         <v>-6.0000941618518597</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A16" s="17">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A16" s="13">
         <v>10</v>
       </c>
       <c r="B16" s="7">
         <v>40452</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
         <v>112</v>
@@ -2395,26 +2610,26 @@
       <c r="H16" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="12" t="s">
         <v>99</v>
       </c>
       <c r="J16" s="5"/>
-      <c r="K16" s="5">
+      <c r="K16" s="15">
         <v>36.746760616008999</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="15">
         <v>-5.1613255266614697</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17" s="17">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A17" s="13">
         <v>10</v>
       </c>
       <c r="B17" s="7">
         <v>40452</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
         <v>113</v>
@@ -2425,26 +2640,26 @@
       <c r="H17" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="12" t="s">
         <v>99</v>
       </c>
       <c r="J17" s="5"/>
-      <c r="K17" s="5">
+      <c r="K17" s="15">
         <v>37.020442548839497</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="15">
         <v>-4.5589643117021899</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" s="17">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A18" s="13">
         <v>10</v>
       </c>
       <c r="B18" s="7">
         <v>40452</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
         <v>114</v>
@@ -2455,26 +2670,26 @@
       <c r="H18" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="12" t="s">
         <v>99</v>
       </c>
       <c r="J18" s="5"/>
-      <c r="K18" s="5">
+      <c r="K18" s="15">
         <v>36.750512253319201</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="15">
         <v>-3.8708370172469202</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" s="17">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A19" s="13">
         <v>10</v>
       </c>
       <c r="B19" s="7">
         <v>40452</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
         <v>115</v>
@@ -2485,26 +2700,26 @@
       <c r="H19" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="12" t="s">
         <v>99</v>
       </c>
       <c r="J19" s="5"/>
-      <c r="K19" s="5">
+      <c r="K19" s="15">
         <v>37.182699604928402</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="15">
         <v>-3.6011831922437598</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20" s="17">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A20" s="13">
         <v>10</v>
       </c>
       <c r="B20" s="7">
         <v>40452</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
         <v>116</v>
@@ -2515,26 +2730,26 @@
       <c r="H20" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="12" t="s">
         <v>99</v>
       </c>
       <c r="J20" s="5"/>
-      <c r="K20" s="5">
+      <c r="K20" s="15">
         <v>41.386686253143999</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="15">
         <v>2.1513963451336302</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A21" s="17">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A21" s="13">
         <v>10</v>
       </c>
       <c r="B21" s="7">
         <v>40452</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
         <v>117</v>
@@ -2545,26 +2760,26 @@
       <c r="H21" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="12" t="s">
         <v>99</v>
       </c>
       <c r="J21" s="5"/>
-      <c r="K21" s="5">
+      <c r="K21" s="15">
         <v>52.371587892600203</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="15">
         <v>4.89049657231672</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A22" s="17">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A22" s="13">
         <v>11</v>
       </c>
       <c r="B22" s="7">
         <v>41334</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
         <v>118</v>
@@ -2575,26 +2790,26 @@
       <c r="H22" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="14" t="s">
         <v>66</v>
       </c>
       <c r="J22" s="5"/>
-      <c r="K22" s="5">
+      <c r="K22" s="15">
         <v>39.285657622573602</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="15">
         <v>-76.616426601988394</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="32" x14ac:dyDescent="0.45">
-      <c r="A23" s="17">
+    <row r="23" spans="1:12" ht="31.5" x14ac:dyDescent="0.6">
+      <c r="A23" s="13">
         <v>12</v>
       </c>
       <c r="B23" s="7">
         <v>41883</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
         <v>119</v>
@@ -2605,26 +2820,26 @@
       <c r="H23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="18" t="s">
+      <c r="I23" s="14" t="s">
         <v>122</v>
       </c>
       <c r="J23" s="5"/>
-      <c r="K23" s="5">
+      <c r="K23" s="15">
         <v>52.271927300518897</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="15">
         <v>10.5244507051922</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="32" x14ac:dyDescent="0.45">
-      <c r="A24" s="17">
+    <row r="24" spans="1:12" ht="31.5" x14ac:dyDescent="0.6">
+      <c r="A24" s="13">
         <v>12</v>
       </c>
       <c r="B24" s="7">
         <v>41883</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
         <v>121</v>
@@ -2635,26 +2850,26 @@
       <c r="H24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="18" t="s">
+      <c r="I24" s="14" t="s">
         <v>122</v>
       </c>
       <c r="J24" s="5"/>
-      <c r="K24" s="5">
+      <c r="K24" s="15">
         <v>52.525440599558998</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="15">
         <v>13.4117469588773</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="32" x14ac:dyDescent="0.45">
-      <c r="A25" s="17">
+    <row r="25" spans="1:12" ht="31.5" x14ac:dyDescent="0.6">
+      <c r="A25" s="13">
         <v>12</v>
       </c>
       <c r="B25" s="7">
         <v>41883</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
         <v>107</v>
@@ -2665,26 +2880,26 @@
       <c r="H25" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I25" s="18" t="s">
+      <c r="I25" s="14" t="s">
         <v>122</v>
       </c>
       <c r="J25" s="5"/>
-      <c r="K25" s="5">
+      <c r="K25" s="15">
         <v>50.062428563484602</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="15">
         <v>19.9396327920016</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="32" x14ac:dyDescent="0.45">
-      <c r="A26" s="17">
+    <row r="26" spans="1:12" ht="31.5" x14ac:dyDescent="0.6">
+      <c r="A26" s="13">
         <v>12</v>
       </c>
       <c r="B26" s="7">
         <v>41883</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
         <v>123</v>
@@ -2695,26 +2910,26 @@
       <c r="H26" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I26" s="18" t="s">
+      <c r="I26" s="14" t="s">
         <v>122</v>
       </c>
       <c r="J26" s="5"/>
-      <c r="K26" s="5">
+      <c r="K26" s="15">
         <v>52.227765003068299</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="15">
         <v>20.996193258919099</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A27" s="17">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A27" s="13">
         <v>13</v>
       </c>
       <c r="B27" s="7">
         <v>42064</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
         <v>125</v>
@@ -2725,26 +2940,26 @@
       <c r="H27" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I27" s="18" t="s">
+      <c r="I27" s="14" t="s">
         <v>66</v>
       </c>
       <c r="J27" s="5"/>
-      <c r="K27" s="5">
+      <c r="K27" s="15">
         <v>29.4275200669999</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="15">
         <v>-98.484032793654407</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="32" x14ac:dyDescent="0.45">
-      <c r="A28" s="17">
+    <row r="28" spans="1:12" ht="31.5" x14ac:dyDescent="0.6">
+      <c r="A28" s="13">
         <v>14</v>
       </c>
       <c r="B28" s="7">
         <v>42309</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
         <v>127</v>
@@ -2755,26 +2970,26 @@
       <c r="H28" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I28" s="18" t="s">
+      <c r="I28" s="14" t="s">
         <v>126</v>
       </c>
       <c r="J28" s="5"/>
-      <c r="K28" s="5">
+      <c r="K28" s="15">
         <v>29.752572142593301</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="15">
         <v>-95.358728560659003</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="32" x14ac:dyDescent="0.45">
-      <c r="A29" s="17">
+    <row r="29" spans="1:12" ht="31.5" x14ac:dyDescent="0.6">
+      <c r="A29" s="13">
         <v>14</v>
       </c>
       <c r="B29" s="7">
         <v>42309</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
         <v>128</v>
@@ -2785,26 +3000,26 @@
       <c r="H29" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="18" t="s">
+      <c r="I29" s="14" t="s">
         <v>126</v>
       </c>
       <c r="J29" s="5"/>
-      <c r="K29" s="5">
+      <c r="K29" s="15">
         <v>37.802413756822702</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="15">
         <v>-122.274208076652</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="48" x14ac:dyDescent="0.45">
-      <c r="A30" s="17">
+    <row r="30" spans="1:12" ht="47.25" x14ac:dyDescent="0.6">
+      <c r="A30" s="13">
         <v>15</v>
       </c>
       <c r="B30" s="7">
         <v>42430</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
         <v>118</v>
@@ -2815,28 +3030,28 @@
       <c r="H30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I30" s="18" t="s">
+      <c r="I30" s="14" t="s">
         <v>130</v>
       </c>
       <c r="J30" s="5"/>
-      <c r="K30" s="5">
+      <c r="K30" s="15">
         <v>39.285657622573602</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="15">
         <v>-76.616426601988394</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="51" x14ac:dyDescent="0.45">
-      <c r="A31" s="17">
+    <row r="31" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
+      <c r="A31" s="13">
         <v>15</v>
       </c>
       <c r="B31" s="7">
         <v>42430</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>129</v>
@@ -2847,26 +3062,26 @@
       <c r="H31" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I31" s="18" t="s">
+      <c r="I31" s="14" t="s">
         <v>130</v>
       </c>
       <c r="J31" s="5"/>
-      <c r="K31" s="5">
+      <c r="K31" s="15">
         <v>39.105125440420899</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="15">
         <v>-84.514263007525102</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A32" s="17">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A32" s="13">
         <v>16</v>
       </c>
       <c r="B32" s="7">
         <v>42614</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5" t="s">
         <v>138</v>
@@ -2877,26 +3092,26 @@
       <c r="H32" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I32" s="18" t="s">
+      <c r="I32" s="14" t="s">
         <v>131</v>
       </c>
       <c r="J32" s="5"/>
-      <c r="K32" s="5">
+      <c r="K32" s="15">
         <v>45.8061881821708</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="15">
         <v>15.9522463919101</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A33" s="17">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A33" s="13">
         <v>16</v>
       </c>
       <c r="B33" s="7">
         <v>42614</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5" t="s">
         <v>139</v>
@@ -2907,26 +3122,26 @@
       <c r="H33" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I33" s="18" t="s">
+      <c r="I33" s="14" t="s">
         <v>131</v>
       </c>
       <c r="J33" s="5"/>
-      <c r="K33" s="5">
+      <c r="K33" s="15">
         <v>46.3621678104263</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="15">
         <v>14.093960105654601</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A34" s="17">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A34" s="13">
         <v>16</v>
       </c>
       <c r="B34" s="7">
         <v>42614</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="5" t="s">
         <v>141</v>
       </c>
@@ -2939,26 +3154,26 @@
       <c r="H34" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I34" s="18" t="s">
+      <c r="I34" s="14" t="s">
         <v>131</v>
       </c>
       <c r="J34" s="5"/>
-      <c r="K34" s="5">
+      <c r="K34" s="15">
         <v>45.783446153162302</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="15">
         <v>14.2041002768187</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A35" s="17">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A35" s="13">
         <v>16</v>
       </c>
       <c r="B35" s="7">
         <v>42614</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
       <c r="E35" s="5" t="s">
         <v>148</v>
       </c>
@@ -2969,26 +3184,26 @@
       <c r="H35" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I35" s="18" t="s">
+      <c r="I35" s="14" t="s">
         <v>131</v>
       </c>
       <c r="J35" s="5"/>
-      <c r="K35" s="5">
+      <c r="K35" s="15">
         <v>44.882431571786697</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L35" s="15">
         <v>15.6189141890504</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A36" s="17">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A36" s="13">
         <v>16</v>
       </c>
       <c r="B36" s="7">
         <v>42614</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5" t="s">
         <v>143</v>
@@ -2999,26 +3214,26 @@
       <c r="H36" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I36" s="18" t="s">
+      <c r="I36" s="14" t="s">
         <v>131</v>
       </c>
       <c r="J36" s="5"/>
-      <c r="K36" s="5">
+      <c r="K36" s="15">
         <v>44.117614037884501</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L36" s="15">
         <v>15.220037549492901</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A37" s="17">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A37" s="13">
         <v>16</v>
       </c>
       <c r="B37" s="7">
         <v>42614</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
         <v>144</v>
@@ -3029,26 +3244,26 @@
       <c r="H37" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I37" s="18" t="s">
+      <c r="I37" s="14" t="s">
         <v>131</v>
       </c>
       <c r="J37" s="5"/>
-      <c r="K37" s="5">
+      <c r="K37" s="15">
         <v>43.508978654093703</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L37" s="15">
         <v>16.441262946199998</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="34" x14ac:dyDescent="0.45">
-      <c r="A38" s="17">
+    <row r="38" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A38" s="13">
         <v>16</v>
       </c>
       <c r="B38" s="7">
         <v>42614</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5" t="s">
         <v>145</v>
@@ -3059,26 +3274,26 @@
       <c r="H38" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I38" s="18" t="s">
+      <c r="I38" s="14" t="s">
         <v>131</v>
       </c>
       <c r="J38" s="5"/>
-      <c r="K38" s="5">
+      <c r="K38" s="15">
         <v>43.338167909189202</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L38" s="15">
         <v>17.815059540440899</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A39" s="17">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A39" s="13">
         <v>16</v>
       </c>
       <c r="B39" s="7">
         <v>42614</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5" t="s">
         <v>147</v>
@@ -3089,26 +3304,26 @@
       <c r="H39" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I39" s="18" t="s">
+      <c r="I39" s="14" t="s">
         <v>131</v>
       </c>
       <c r="J39" s="5"/>
-      <c r="K39" s="5">
+      <c r="K39" s="15">
         <v>42.640745315309204</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L39" s="15">
         <v>18.107255468449399</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A40" s="17">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A40" s="13">
         <v>17</v>
       </c>
       <c r="B40" s="7">
         <v>42736</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
         <v>149</v>
@@ -3119,28 +3334,28 @@
       <c r="H40" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I40" s="18" t="s">
+      <c r="I40" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J40" s="5"/>
-      <c r="K40" s="5">
+      <c r="K40" s="15">
         <v>26.7024730607341</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L40" s="15">
         <v>127.878045254618</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A41" s="17">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A41" s="13">
         <v>18</v>
       </c>
       <c r="B41" s="7">
         <v>42795</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
       <c r="E41" s="5"/>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="5" t="s">
         <v>150</v>
       </c>
       <c r="G41" s="5" t="s">
@@ -3149,26 +3364,26 @@
       <c r="H41" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I41" s="18" t="s">
+      <c r="I41" s="14" t="s">
         <v>151</v>
       </c>
       <c r="J41" s="5"/>
-      <c r="K41" s="5">
+      <c r="K41" s="15">
         <v>29.951117221115901</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L41" s="15">
         <v>-90.075875256094093</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A42" s="17">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A42" s="13">
         <v>19</v>
       </c>
       <c r="B42" s="7">
         <v>42856</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5" t="s">
         <v>152</v>
@@ -3179,86 +3394,86 @@
       <c r="H42" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I42" s="18" t="s">
+      <c r="I42" s="14" t="s">
         <v>133</v>
       </c>
       <c r="J42" s="5"/>
-      <c r="K42" s="5">
+      <c r="K42" s="15">
         <v>8.1163910602032203</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L42" s="15">
         <v>98.3067130312578</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="32" x14ac:dyDescent="0.45">
-      <c r="A43" s="17">
+    <row r="43" spans="1:12" ht="31.5" x14ac:dyDescent="0.6">
+      <c r="A43" s="13">
         <v>20</v>
       </c>
       <c r="B43" s="7">
         <v>42979</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I43" s="21" t="s">
+      <c r="I43" s="14" t="s">
         <v>134</v>
       </c>
       <c r="J43" s="5"/>
-      <c r="K43" s="5">
+      <c r="K43" s="15">
         <v>46.937852101165703</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L43" s="15">
         <v>14.5639120221503</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="32" x14ac:dyDescent="0.45">
-      <c r="A44" s="17">
+    <row r="44" spans="1:12" ht="31.5" x14ac:dyDescent="0.6">
+      <c r="A44" s="13">
         <v>20</v>
       </c>
       <c r="B44" s="7">
         <v>42979</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I44" s="21" t="s">
+      <c r="I44" s="14" t="s">
         <v>134</v>
       </c>
       <c r="J44" s="5"/>
-      <c r="K44" s="5">
+      <c r="K44" s="15">
         <v>45.409478170140702</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L44" s="15">
         <v>11.878060676424001</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A45" s="17">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A45" s="13">
         <v>21</v>
       </c>
       <c r="B45" s="7">
         <v>43160</v>
       </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5" t="s">
         <v>154</v>
@@ -3269,26 +3484,26 @@
       <c r="H45" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I45" s="18" t="s">
+      <c r="I45" s="14" t="s">
         <v>135</v>
       </c>
       <c r="J45" s="5"/>
-      <c r="K45" s="5">
+      <c r="K45" s="15">
         <v>34.038892889163101</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45" s="15">
         <v>-118.268156294997</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="32" x14ac:dyDescent="0.45">
-      <c r="A46" s="17">
+    <row r="46" spans="1:12" ht="31.5" x14ac:dyDescent="0.6">
+      <c r="A46" s="13">
         <v>22</v>
       </c>
       <c r="B46" s="7">
         <v>43282</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5" t="s">
         <v>155</v>
@@ -3299,27 +3514,27 @@
       <c r="H46" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I46" s="18" t="s">
+      <c r="I46" s="14" t="s">
         <v>136</v>
       </c>
       <c r="J46" s="5"/>
-      <c r="K46" s="5">
+      <c r="K46" s="15">
         <v>49.178261329795603</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L46" s="15">
         <v>-0.37014065563777399</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="32" x14ac:dyDescent="0.45">
-      <c r="A47" s="17">
+    <row r="47" spans="1:12" ht="31.5" x14ac:dyDescent="0.6">
+      <c r="A47" s="13">
         <v>22</v>
       </c>
       <c r="B47" s="7">
         <v>43282</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="6" t="s">
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F47" s="5" t="s">
@@ -3331,91 +3546,91 @@
       <c r="H47" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I47" s="18" t="s">
+      <c r="I47" s="14" t="s">
         <v>136</v>
       </c>
       <c r="J47" s="5"/>
-      <c r="K47" s="5">
+      <c r="K47" s="15">
         <v>50.943208510535001</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L47" s="15">
         <v>6.9584788315311696</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="51" x14ac:dyDescent="0.45">
-      <c r="A48" s="19">
+    <row r="48" spans="1:12" ht="47.25" x14ac:dyDescent="0.6">
+      <c r="A48" s="13">
         <v>23</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="7">
         <v>43313</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6" t="s">
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G48" s="5" t="s">
         <v>53</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I48" s="13" t="s">
+      <c r="I48" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6">
+      <c r="J48" s="5"/>
+      <c r="K48" s="15">
         <v>35.895320216901801</v>
       </c>
-      <c r="L48" s="6">
+      <c r="L48" s="15">
         <v>139.95252829063199</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A49" s="19">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A49" s="13">
         <v>24</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="7">
         <v>43525</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6" t="s">
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G49" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="H49" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6">
+        <v>202</v>
+      </c>
+      <c r="J49" s="5"/>
+      <c r="K49" s="15">
         <v>42.345406954485597</v>
       </c>
-      <c r="L49" s="6">
+      <c r="L49" s="15">
         <v>-71.047000911793504</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="80" x14ac:dyDescent="0.45">
-      <c r="A50" s="19">
+    <row r="50" spans="1:12" ht="78.75" x14ac:dyDescent="0.6">
+      <c r="A50" s="13">
         <v>25</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="7">
         <v>43556</v>
       </c>
-      <c r="C50" s="22">
+      <c r="C50" s="16">
         <v>43563</v>
       </c>
-      <c r="D50" s="22">
+      <c r="D50" s="16">
         <v>43579</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F50" s="5" t="s">
@@ -3427,365 +3642,1126 @@
       <c r="H50" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I50" s="16" t="s">
+      <c r="I50" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="J50" s="5"/>
+      <c r="K50" s="15">
+        <v>50.943208510535001</v>
+      </c>
+      <c r="L50" s="15">
+        <v>6.9584788315311696</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="78.75" x14ac:dyDescent="0.6">
+      <c r="A51" s="13">
+        <v>25</v>
+      </c>
+      <c r="B51" s="7">
+        <v>43556</v>
+      </c>
+      <c r="C51" s="16">
+        <v>43566</v>
+      </c>
+      <c r="D51" s="16">
+        <v>43568</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="J50" s="6"/>
-      <c r="K50" s="5">
-        <v>50.943208510535001</v>
-      </c>
-      <c r="L50" s="5">
-        <v>6.9584788315311696</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="80" x14ac:dyDescent="0.45">
-      <c r="A51" s="19">
-        <v>25</v>
-      </c>
-      <c r="B51" s="8">
-        <v>43556</v>
-      </c>
-      <c r="C51" s="22">
-        <v>43566</v>
-      </c>
-      <c r="D51" s="22">
-        <v>43568</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="F51" s="5" t="s">
+      <c r="G51" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I51" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="J51" s="6"/>
-      <c r="K51" s="5">
+      <c r="I51" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="J51" s="5"/>
+      <c r="K51" s="15">
         <v>52.382650979684897</v>
       </c>
-      <c r="L51" s="5">
+      <c r="L51" s="15">
         <v>-1.56708361785728</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A52" s="19">
+    <row r="52" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A52" s="13">
         <v>26</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A53" s="17"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="23"/>
+      <c r="B52" s="7">
+        <v>43739</v>
+      </c>
+      <c r="C52" s="16">
+        <v>43739</v>
+      </c>
+      <c r="D52" s="16">
+        <v>43740</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="J52" s="5"/>
+      <c r="K52" s="15">
+        <v>63.974997419278097</v>
+      </c>
+      <c r="L52" s="15">
+        <v>-21.0368082495424</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A53" s="13">
+        <v>26</v>
+      </c>
+      <c r="B53" s="7">
+        <v>43739</v>
+      </c>
+      <c r="C53" s="16">
+        <v>43740</v>
+      </c>
+      <c r="D53" s="16">
+        <v>43741</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>204</v>
+      </c>
       <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A54" s="17"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="23"/>
+      <c r="K53" s="15">
+        <v>64.285172938596006</v>
+      </c>
+      <c r="L53" s="15">
+        <v>-21.074215656130999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A54" s="13">
+        <v>26</v>
+      </c>
+      <c r="B54" s="7">
+        <v>43739</v>
+      </c>
+      <c r="C54" s="16">
+        <v>43741</v>
+      </c>
+      <c r="D54" s="16">
+        <v>43742</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>204</v>
+      </c>
       <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A55" s="17"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="23"/>
+      <c r="K54" s="15">
+        <v>64.002019635919098</v>
+      </c>
+      <c r="L54" s="15">
+        <v>-16.880123646411899</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A55" s="13">
+        <v>26</v>
+      </c>
+      <c r="B55" s="7">
+        <v>43739</v>
+      </c>
+      <c r="C55" s="16">
+        <v>43742</v>
+      </c>
+      <c r="D55" s="16">
+        <v>43743</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>204</v>
+      </c>
       <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A56" s="17"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="23"/>
+      <c r="K55" s="15">
+        <v>64.657997326235005</v>
+      </c>
+      <c r="L55" s="15">
+        <v>-14.2871601973726</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A56" s="13">
+        <v>26</v>
+      </c>
+      <c r="B56" s="7">
+        <v>43739</v>
+      </c>
+      <c r="C56" s="16">
+        <v>43743</v>
+      </c>
+      <c r="D56" s="16">
+        <v>43744</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>204</v>
+      </c>
       <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A57" s="19">
+      <c r="K56" s="15">
+        <v>65.815661814944704</v>
+      </c>
+      <c r="L56" s="15">
+        <v>-16.3690028274948</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A57" s="13">
+        <v>26</v>
+      </c>
+      <c r="B57" s="7">
+        <v>43739</v>
+      </c>
+      <c r="C57" s="16">
+        <v>43744</v>
+      </c>
+      <c r="D57" s="16">
+        <v>43745</v>
+      </c>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="J57" s="5"/>
+      <c r="K57" s="15">
+        <v>65.874105856900499</v>
+      </c>
+      <c r="L57" s="15">
+        <v>-18.200972887932299</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A58" s="13">
+        <v>26</v>
+      </c>
+      <c r="B58" s="7">
+        <v>43739</v>
+      </c>
+      <c r="C58" s="16">
+        <v>43745</v>
+      </c>
+      <c r="D58" s="16">
+        <v>43746</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="J58" s="5"/>
+      <c r="K58" s="15">
+        <v>65.677876357846202</v>
+      </c>
+      <c r="L58" s="15">
+        <v>-20.280849780182901</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A59" s="13">
+        <v>26</v>
+      </c>
+      <c r="B59" s="7">
+        <v>43739</v>
+      </c>
+      <c r="C59" s="16">
+        <v>43746</v>
+      </c>
+      <c r="D59" s="16">
+        <v>43747</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I59" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="J59" s="5"/>
+      <c r="K59" s="15">
+        <v>64.927893733752796</v>
+      </c>
+      <c r="L59" s="15">
+        <v>-23.313317346255399</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A60" s="13">
+        <v>26</v>
+      </c>
+      <c r="B60" s="7">
+        <v>43739</v>
+      </c>
+      <c r="C60" s="16">
+        <v>43747</v>
+      </c>
+      <c r="D60" s="16">
+        <v>43748</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I60" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="J60" s="5"/>
+      <c r="K60" s="15">
+        <v>64.130501026919504</v>
+      </c>
+      <c r="L60" s="15">
+        <v>-21.919546606429801</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A61" s="13">
+        <v>26</v>
+      </c>
+      <c r="B61" s="7">
+        <v>43739</v>
+      </c>
+      <c r="C61" s="16">
+        <v>43748</v>
+      </c>
+      <c r="D61" s="16">
+        <v>43749</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I61" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="J61" s="5"/>
+      <c r="K61" s="15">
+        <v>63.972179637334797</v>
+      </c>
+      <c r="L61" s="15">
+        <v>-22.534168857815999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A62" s="13">
+        <v>26</v>
+      </c>
+      <c r="B62" s="7">
+        <v>43739</v>
+      </c>
+      <c r="C62" s="16">
+        <v>43749</v>
+      </c>
+      <c r="D62" s="16">
+        <v>43749</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I62" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="J62" s="5"/>
+      <c r="K62" s="15">
+        <v>60.146177000000002</v>
+      </c>
+      <c r="L62" s="15">
+        <v>24.988094</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A63" s="13">
         <v>27</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I57" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6">
-        <v>36.119894651422101</v>
-      </c>
-      <c r="L57" s="6">
-        <v>-115.171454290643</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="32" x14ac:dyDescent="0.45">
-      <c r="A58" s="19"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-    </row>
-    <row r="59" spans="1:12" ht="32" x14ac:dyDescent="0.45">
-      <c r="A59" s="19"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-    </row>
-    <row r="60" spans="1:12" ht="32" x14ac:dyDescent="0.45">
-      <c r="A60" s="19"/>
-      <c r="B60" s="8">
-        <v>45170</v>
-      </c>
-      <c r="C60" s="22">
-        <v>45185</v>
-      </c>
-      <c r="D60" s="22">
-        <v>45190</v>
-      </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I60" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6">
-        <v>50.0854993826851</v>
-      </c>
-      <c r="L60" s="6">
-        <v>14.3797258889237</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="48" x14ac:dyDescent="0.45">
-      <c r="A61" s="19"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-    </row>
-    <row r="62" spans="1:12" ht="32" x14ac:dyDescent="0.45">
-      <c r="A62" s="19"/>
-      <c r="B62" s="8">
-        <v>45627</v>
-      </c>
-      <c r="C62" s="22">
-        <v>45636</v>
-      </c>
-      <c r="D62" s="22">
-        <v>45643</v>
-      </c>
-      <c r="E62" s="6"/>
-      <c r="F62" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H62" s="6"/>
-      <c r="I62" s="20" t="s">
+      <c r="B63" s="7">
+        <v>44986</v>
+      </c>
+      <c r="C63" s="16">
+        <v>44995</v>
+      </c>
+      <c r="D63" s="16">
+        <v>44995</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6">
-        <v>35.003620166833699</v>
-      </c>
-      <c r="L62" s="6">
-        <v>135.75103821800599</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A63" s="19"/>
-      <c r="B63" s="8">
-        <v>45352</v>
-      </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="G63" s="6" t="s">
+      <c r="G63" s="5" t="s">
         <v>105</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I63" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6">
-        <v>44.969808694133697</v>
-      </c>
-      <c r="L63" s="6">
-        <v>-93.273939580476195</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A64" s="17"/>
+      <c r="I63" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="J63" s="5"/>
+      <c r="K63" s="15">
+        <v>36.119894651422101</v>
+      </c>
+      <c r="L63" s="15">
+        <v>-115.171454290643</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="31.5" x14ac:dyDescent="0.6">
+      <c r="A64" s="13">
+        <v>28</v>
+      </c>
       <c r="B64" s="7">
-        <v>45474</v>
-      </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
+        <v>45078</v>
+      </c>
+      <c r="C64" s="16">
+        <v>45098</v>
+      </c>
+      <c r="D64" s="16">
+        <v>45102</v>
+      </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I64" s="5" t="s">
-        <v>108</v>
+      <c r="I64" s="14" t="s">
+        <v>177</v>
       </c>
       <c r="J64" s="5"/>
-      <c r="K64" s="5">
-        <v>50.062428563484602</v>
-      </c>
-      <c r="L64" s="5">
-        <v>19.9396327920016</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="51" x14ac:dyDescent="0.45">
-      <c r="A65" s="17"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="10"/>
-      <c r="G65" s="5"/>
+      <c r="K64" s="15">
+        <v>47.618664765458298</v>
+      </c>
+      <c r="L64" s="15">
+        <v>-122.337190818217</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A65" s="13">
+        <v>29</v>
+      </c>
+      <c r="B65" s="7">
+        <v>45139</v>
+      </c>
+      <c r="C65" s="16">
+        <v>45166</v>
+      </c>
+      <c r="D65" s="16">
+        <v>45171</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="H65" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I65" s="9" t="s">
-        <v>80</v>
+        <v>100</v>
+      </c>
+      <c r="I65" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A66" s="19"/>
+      <c r="K65" s="15">
+        <v>35.678863115127598</v>
+      </c>
+      <c r="L65" s="15">
+        <v>139.76960756174401</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="31.5" x14ac:dyDescent="0.6">
+      <c r="A66" s="13">
+        <v>30</v>
+      </c>
       <c r="B66" s="7">
-        <v>45717</v>
-      </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
+        <v>45170</v>
+      </c>
+      <c r="C66" s="16">
+        <v>45185</v>
+      </c>
+      <c r="D66" s="16">
+        <v>45190</v>
+      </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5" t="s">
-        <v>104</v>
+        <v>173</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I66" s="5" t="s">
+      <c r="I66" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="J66" s="5"/>
+      <c r="K66" s="15">
+        <v>50.0854993826851</v>
+      </c>
+      <c r="L66" s="15">
+        <v>14.3797258889237</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="47.25" x14ac:dyDescent="0.6">
+      <c r="A67" s="13">
+        <v>31</v>
+      </c>
+      <c r="B67" s="7">
+        <v>45170</v>
+      </c>
+      <c r="C67" s="16">
+        <v>45194</v>
+      </c>
+      <c r="D67" s="16">
+        <v>45175</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="J67" s="5"/>
+      <c r="K67" s="15">
+        <v>36.082523836627601</v>
+      </c>
+      <c r="L67" s="15">
+        <v>140.08150225832199</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="47.25" x14ac:dyDescent="0.6">
+      <c r="A68" s="13">
+        <v>31</v>
+      </c>
+      <c r="B68" s="7">
+        <v>45170</v>
+      </c>
+      <c r="C68" s="16">
+        <v>45194</v>
+      </c>
+      <c r="D68" s="16">
+        <v>45175</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I68" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="J68" s="5"/>
+      <c r="K68" s="15">
+        <v>37.397855326748399</v>
+      </c>
+      <c r="L68" s="15">
+        <v>140.387044968476</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="47.25" x14ac:dyDescent="0.6">
+      <c r="A69" s="13">
+        <v>31</v>
+      </c>
+      <c r="B69" s="7">
+        <v>45170</v>
+      </c>
+      <c r="C69" s="16">
+        <v>45194</v>
+      </c>
+      <c r="D69" s="16">
+        <v>45175</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="J69" s="5"/>
+      <c r="K69" s="15">
+        <v>37.451942255903703</v>
+      </c>
+      <c r="L69" s="15">
+        <v>141.009338901935</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="31.5" x14ac:dyDescent="0.6">
+      <c r="A70" s="13">
+        <v>32</v>
+      </c>
+      <c r="B70" s="7">
+        <v>45627</v>
+      </c>
+      <c r="C70" s="16">
+        <v>45636</v>
+      </c>
+      <c r="D70" s="16">
+        <v>45643</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H70" s="5"/>
+      <c r="I70" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="J70" s="5"/>
+      <c r="K70" s="15">
+        <v>35.003620166833699</v>
+      </c>
+      <c r="L70" s="15">
+        <v>135.75103821800599</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A71" s="13">
+        <v>33</v>
+      </c>
+      <c r="B71" s="7">
+        <v>45352</v>
+      </c>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I71" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="J71" s="5"/>
+      <c r="K71" s="15">
+        <v>44.969808694133697</v>
+      </c>
+      <c r="L71" s="15">
+        <v>-93.273939580476195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A72" s="13">
+        <v>34</v>
+      </c>
+      <c r="B72" s="7">
+        <v>45474</v>
+      </c>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I72" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="J72" s="5"/>
+      <c r="K72" s="15">
+        <v>50.062428563484602</v>
+      </c>
+      <c r="L72" s="15">
+        <v>19.9396327920016</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="47.25" x14ac:dyDescent="0.6">
+      <c r="A73" s="13">
+        <v>35</v>
+      </c>
+      <c r="B73" s="7">
+        <v>45505</v>
+      </c>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I73" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="J73" s="5"/>
+      <c r="K73" s="15">
+        <v>51.51992842141</v>
+      </c>
+      <c r="L73" s="15">
+        <v>-0.17396384277622601</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="47.25" x14ac:dyDescent="0.6">
+      <c r="A74" s="13">
+        <v>35</v>
+      </c>
+      <c r="B74" s="7">
+        <v>45505</v>
+      </c>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I74" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="J74" s="5"/>
+      <c r="K74" s="15">
+        <v>48.881228030274897</v>
+      </c>
+      <c r="L74" s="15">
+        <v>2.3554740356442401</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="47.25" x14ac:dyDescent="0.6">
+      <c r="A75" s="13">
+        <v>35</v>
+      </c>
+      <c r="B75" s="7">
+        <v>45505</v>
+      </c>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I75" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="J75" s="5"/>
+      <c r="K75" s="15">
+        <v>47.050574894314003</v>
+      </c>
+      <c r="L75" s="15">
+        <v>8.3104007332115302</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="47.25" x14ac:dyDescent="0.6">
+      <c r="A76" s="13">
+        <v>35</v>
+      </c>
+      <c r="B76" s="7">
+        <v>45505</v>
+      </c>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I76" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="J76" s="5"/>
+      <c r="K76" s="15">
+        <v>45.487139874156703</v>
+      </c>
+      <c r="L76" s="15">
+        <v>9.2053669288753692</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="47.25" x14ac:dyDescent="0.6">
+      <c r="A77" s="13">
+        <v>35</v>
+      </c>
+      <c r="B77" s="7">
+        <v>45505</v>
+      </c>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I77" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="J77" s="5"/>
+      <c r="K77" s="15">
+        <v>45.437211487201303</v>
+      </c>
+      <c r="L77" s="15">
+        <v>12.326648478205801</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="47.25" x14ac:dyDescent="0.6">
+      <c r="A78" s="13">
+        <v>35</v>
+      </c>
+      <c r="B78" s="7">
+        <v>45505</v>
+      </c>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I78" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="J78" s="5"/>
+      <c r="K78" s="15">
+        <v>43.7234002811702</v>
+      </c>
+      <c r="L78" s="15">
+        <v>10.396707802333101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="47.25" x14ac:dyDescent="0.6">
+      <c r="A79" s="13">
+        <v>35</v>
+      </c>
+      <c r="B79" s="7">
+        <v>45505</v>
+      </c>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I79" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="J79" s="5"/>
+      <c r="K79" s="15">
+        <v>43.777440915413997</v>
+      </c>
+      <c r="L79" s="15">
+        <v>11.2503227216075</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="47.25" x14ac:dyDescent="0.6">
+      <c r="A80" s="13">
+        <v>35</v>
+      </c>
+      <c r="B80" s="7">
+        <v>45505</v>
+      </c>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I80" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="J80" s="5"/>
+      <c r="K80" s="15">
+        <v>41.890180977253699</v>
+      </c>
+      <c r="L80" s="15">
+        <v>12.506589131448299</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="47.25" x14ac:dyDescent="0.6">
+      <c r="A81" s="13">
+        <v>35</v>
+      </c>
+      <c r="B81" s="7">
+        <v>45505</v>
+      </c>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I81" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="J81" s="5"/>
+      <c r="K81" s="15">
+        <v>24.5459570426341</v>
+      </c>
+      <c r="L81" s="15">
+        <v>54.485478514154103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A82" s="13">
+        <v>36</v>
+      </c>
+      <c r="B82" s="7">
+        <v>45717</v>
+      </c>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I82" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6">
+      <c r="J82" s="5"/>
+      <c r="K82" s="15">
         <v>33.798182484605697</v>
       </c>
-      <c r="L66" s="6">
+      <c r="L82" s="15">
         <v>-117.914611697654</v>
       </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A83" s="19">
+        <v>37</v>
+      </c>
+      <c r="B83" s="8">
+        <v>45809</v>
+      </c>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G83" s="6"/>
+      <c r="H83" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I83" s="21"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="22"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A84" s="19">
+        <v>38</v>
+      </c>
+      <c r="B84" s="8">
+        <v>45870</v>
+      </c>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G84" s="6"/>
+      <c r="H84" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I84" s="21"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3805,22 +4781,22 @@
       <selection activeCell="B53" sqref="B53:I55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.4140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="7.0625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.4375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1875" customWidth="1"/>
     <col min="6" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" customWidth="1"/>
-    <col min="9" max="9" width="24.4140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.58203125" customWidth="1"/>
+    <col min="8" max="8" width="12.1875" customWidth="1"/>
+    <col min="9" max="9" width="24.4375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5625" customWidth="1"/>
     <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A1" s="3" t="s">
         <v>57</v>
       </c>
@@ -3858,8 +4834,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2" s="11">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A2" s="10">
         <v>-100</v>
       </c>
       <c r="B2" s="7"/>
@@ -3886,8 +4862,8 @@
         <v>127.21859000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="11">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A3" s="10">
         <v>-10</v>
       </c>
       <c r="B3" s="7"/>
@@ -3916,8 +4892,8 @@
         <v>128.718154</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" s="11">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
       <c r="B4" s="7">
@@ -3948,8 +4924,8 @@
         <v>-106.638927</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="11">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A5" s="10">
         <v>2</v>
       </c>
       <c r="B5" s="7">
@@ -3980,8 +4956,8 @@
         <v>132.45434</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" s="11">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A6" s="10">
         <v>3</v>
       </c>
       <c r="B6" s="7">
@@ -4012,8 +4988,8 @@
         <v>3.87502932513372</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" s="11">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A7" s="10">
         <v>4</v>
       </c>
       <c r="B7" s="7">
@@ -4044,8 +5020,8 @@
         <v>120.36963815813201</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8" s="11">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A8" s="10">
         <v>5</v>
       </c>
       <c r="B8" s="7">
@@ -4076,8 +5052,8 @@
         <v>-79.996414734112406</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" s="11">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A9" s="10">
         <v>6</v>
       </c>
       <c r="B9" s="7">
@@ -4108,8 +5084,8 @@
         <v>30.354790004319799</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" s="11">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A10" s="10">
         <v>7</v>
       </c>
       <c r="B10" s="7">
@@ -4140,8 +5116,8 @@
         <v>116.304608750865</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="11">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A11" s="10">
         <v>8</v>
       </c>
       <c r="B11" s="7">
@@ -4172,8 +5148,8 @@
         <v>-122.66329917549101</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="11">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A12" s="10">
         <v>9</v>
       </c>
       <c r="B12" s="7">
@@ -4200,8 +5176,8 @@
         <v>135.50048238661799</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="11">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A13" s="10">
         <v>10</v>
       </c>
       <c r="B13" s="7">
@@ -4230,8 +5206,8 @@
         <v>-9.1421650205076492</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A14" s="11">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A14" s="10">
         <v>10</v>
       </c>
       <c r="B14" s="7">
@@ -4260,8 +5236,8 @@
         <v>-3.7029134733882998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A15" s="11">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A15" s="10">
         <v>10</v>
       </c>
       <c r="B15" s="7">
@@ -4290,8 +5266,8 @@
         <v>-6.0000941618518597</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A16" s="11">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A16" s="10">
         <v>10</v>
       </c>
       <c r="B16" s="7">
@@ -4320,8 +5296,8 @@
         <v>-5.1613255266614697</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17" s="11">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A17" s="10">
         <v>10</v>
       </c>
       <c r="B17" s="7">
@@ -4350,8 +5326,8 @@
         <v>-4.5589643117021899</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" s="11">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A18" s="10">
         <v>10</v>
       </c>
       <c r="B18" s="7">
@@ -4380,8 +5356,8 @@
         <v>-3.8708370172469202</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" s="11">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A19" s="10">
         <v>10</v>
       </c>
       <c r="B19" s="7">
@@ -4410,8 +5386,8 @@
         <v>-3.6011831922437598</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20" s="11">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A20" s="10">
         <v>10</v>
       </c>
       <c r="B20" s="7">
@@ -4440,8 +5416,8 @@
         <v>2.1513963451336302</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A21" s="11">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A21" s="10">
         <v>10</v>
       </c>
       <c r="B21" s="7">
@@ -4470,8 +5446,8 @@
         <v>4.89049657231672</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A22" s="11"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A22" s="10"/>
       <c r="B22" s="7"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -4484,8 +5460,8 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A23" s="11"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A23" s="10"/>
       <c r="B23" s="7"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -4498,8 +5474,8 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A24" s="11"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A24" s="10"/>
       <c r="B24" s="7"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -4512,8 +5488,8 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A25" s="11"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A25" s="10"/>
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -4526,8 +5502,8 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A26" s="11"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A26" s="10"/>
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -4540,8 +5516,8 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A27" s="11"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A27" s="10"/>
       <c r="B27" s="7"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -4554,12 +5530,12 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A28" s="11"/>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A28" s="10"/>
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="10"/>
+      <c r="E28" s="9"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -4567,12 +5543,12 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A29" s="11"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A29" s="10"/>
       <c r="B29" s="7"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="10"/>
+      <c r="E29" s="9"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -4580,12 +5556,12 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A30" s="11"/>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A30" s="10"/>
       <c r="B30" s="7"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="10"/>
+      <c r="E30" s="9"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -4593,12 +5569,12 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A31" s="11"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A31" s="10"/>
       <c r="B31" s="7"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="10"/>
+      <c r="E31" s="9"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -4606,12 +5582,12 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A32" s="11"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A32" s="10"/>
       <c r="B32" s="7"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="10"/>
+      <c r="E32" s="9"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -4619,12 +5595,12 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A33" s="11"/>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A33" s="10"/>
       <c r="B33" s="7"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="10"/>
+      <c r="E33" s="9"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -4632,12 +5608,12 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A34" s="11"/>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A34" s="10"/>
       <c r="B34" s="7"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="10"/>
+      <c r="E34" s="9"/>
       <c r="F34" t="s">
         <v>98</v>
       </c>
@@ -4648,12 +5624,12 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A35" s="11"/>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A35" s="10"/>
       <c r="B35" s="7"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="10"/>
+      <c r="E35" s="9"/>
       <c r="F35" t="s">
         <v>97</v>
       </c>
@@ -4664,12 +5640,12 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A36" s="11"/>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A36" s="10"/>
       <c r="B36" s="7"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="10"/>
+      <c r="E36" s="9"/>
       <c r="F36" t="s">
         <v>96</v>
       </c>
@@ -4680,12 +5656,12 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A37" s="11"/>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A37" s="10"/>
       <c r="B37" s="7"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="10"/>
+      <c r="E37" s="9"/>
       <c r="F37" t="s">
         <v>95</v>
       </c>
@@ -4696,12 +5672,12 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A38" s="11"/>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A38" s="10"/>
       <c r="B38" s="7"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="10"/>
+      <c r="E38" s="9"/>
       <c r="F38" t="s">
         <v>94</v>
       </c>
@@ -4712,12 +5688,12 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A39" s="11"/>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A39" s="10"/>
       <c r="B39" s="7"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="10"/>
+      <c r="E39" s="9"/>
       <c r="F39" t="s">
         <v>93</v>
       </c>
@@ -4728,12 +5704,12 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A40" s="11"/>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A40" s="10"/>
       <c r="B40" s="7"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="10"/>
+      <c r="E40" s="9"/>
       <c r="F40" t="s">
         <v>92</v>
       </c>
@@ -4744,12 +5720,12 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A41" s="11"/>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A41" s="10"/>
       <c r="B41" s="7"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="10"/>
+      <c r="E41" s="9"/>
       <c r="F41" t="s">
         <v>91</v>
       </c>
@@ -4760,12 +5736,12 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A42" s="11"/>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A42" s="10"/>
       <c r="B42" s="7"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="10"/>
+      <c r="E42" s="9"/>
       <c r="F42" t="s">
         <v>90</v>
       </c>
@@ -4776,12 +5752,12 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A43" s="11"/>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A43" s="10"/>
       <c r="B43" s="7"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="10"/>
+      <c r="E43" s="9"/>
       <c r="F43" t="s">
         <v>89</v>
       </c>
@@ -4792,12 +5768,12 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A44" s="11"/>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A44" s="10"/>
       <c r="B44" s="7"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
-      <c r="E44" s="10"/>
+      <c r="E44" s="9"/>
       <c r="F44" t="s">
         <v>88</v>
       </c>
@@ -4808,12 +5784,12 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A45" s="11"/>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A45" s="10"/>
       <c r="B45" s="7"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="10"/>
+      <c r="E45" s="9"/>
       <c r="F45" t="s">
         <v>87</v>
       </c>
@@ -4824,12 +5800,12 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A46" s="11"/>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A46" s="10"/>
       <c r="B46" s="7"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="10"/>
+      <c r="E46" s="9"/>
       <c r="F46" t="s">
         <v>86</v>
       </c>
@@ -4840,12 +5816,12 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A47" s="11"/>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A47" s="10"/>
       <c r="B47" s="7"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="10"/>
+      <c r="E47" s="9"/>
       <c r="F47" t="s">
         <v>85</v>
       </c>
@@ -4856,12 +5832,12 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A48" s="11"/>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A48" s="10"/>
       <c r="B48" s="7"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="10"/>
+      <c r="E48" s="9"/>
       <c r="F48" t="s">
         <v>84</v>
       </c>
@@ -4872,12 +5848,12 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A49" s="11"/>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A49" s="10"/>
       <c r="B49" s="7"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
-      <c r="E49" s="10"/>
+      <c r="E49" s="9"/>
       <c r="F49" t="s">
         <v>83</v>
       </c>
@@ -4888,12 +5864,12 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A50" s="11"/>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A50" s="10"/>
       <c r="B50" s="7"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="10"/>
+      <c r="E50" s="9"/>
       <c r="F50" t="s">
         <v>82</v>
       </c>
@@ -4904,12 +5880,12 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A51" s="11"/>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A51" s="10"/>
       <c r="B51" s="7"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="10"/>
+      <c r="E51" s="9"/>
       <c r="F51" t="s">
         <v>81</v>
       </c>
@@ -4920,8 +5896,8 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A52" s="11"/>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A52" s="10"/>
       <c r="B52" s="7">
         <v>45352</v>
       </c>
@@ -4936,8 +5912,8 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A53" s="11"/>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A53" s="10"/>
       <c r="B53" s="7">
         <v>45474</v>
       </c>
@@ -4960,12 +5936,12 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A54" s="11"/>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A54" s="10"/>
       <c r="B54" s="7"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="10"/>
+      <c r="E54" s="9"/>
       <c r="F54" t="s">
         <v>80</v>
       </c>
@@ -4976,8 +5952,8 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A55" s="11"/>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A55" s="10"/>
       <c r="B55" s="7">
         <v>45352</v>
       </c>
@@ -5000,8 +5976,8 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A56" s="12"/>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A56" s="11"/>
       <c r="B56" s="8"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -5032,7 +6008,7 @@
       <selection activeCell="E61" sqref="E9:E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5047,16 +6023,16 @@
       <selection activeCell="G2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="4" max="4" width="20.4140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.4375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.4375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.25" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" customWidth="1"/>
+    <col min="7" max="8" width="10.8125" customWidth="1"/>
     <col min="9" max="9" width="69.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -5085,7 +6061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -5112,7 +6088,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -5141,7 +6117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -5170,7 +6146,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -5199,7 +6175,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -5226,7 +6202,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -5251,7 +6227,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -5280,7 +6256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
